--- a/fhir/indisa/StructureDefinition-ProfileEncounterKlinic.xlsx
+++ b/fhir/indisa/StructureDefinition-ProfileEncounterKlinic.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$276</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$287</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9637" uniqueCount="775">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10025" uniqueCount="788">
   <si>
     <t>Path</t>
   </si>
@@ -2090,6 +2090,42 @@
     <t>PV1-16</t>
   </si>
   <si>
+    <t>Encounter.hospitalization.specialCourtesy.id</t>
+  </si>
+  <si>
+    <t>Encounter.hospitalization.specialCourtesy.extension</t>
+  </si>
+  <si>
+    <t>Encounter.hospitalization.specialCourtesy.coding</t>
+  </si>
+  <si>
+    <t>Encounter.hospitalization.specialCourtesy.coding.id</t>
+  </si>
+  <si>
+    <t>Encounter.hospitalization.specialCourtesy.coding.extension</t>
+  </si>
+  <si>
+    <t>Encounter.hospitalization.specialCourtesy.coding.system</t>
+  </si>
+  <si>
+    <t>http://terminology.hl7.org/CodeSystem/v3-EncounterSpecialCourtesy</t>
+  </si>
+  <si>
+    <t>Encounter.hospitalization.specialCourtesy.coding.version</t>
+  </si>
+  <si>
+    <t>Encounter.hospitalization.specialCourtesy.coding.code</t>
+  </si>
+  <si>
+    <t>Encounter.hospitalization.specialCourtesy.coding.display</t>
+  </si>
+  <si>
+    <t>Encounter.hospitalization.specialCourtesy.coding.userSelected</t>
+  </si>
+  <si>
+    <t>Encounter.hospitalization.specialCourtesy.text</t>
+  </si>
+  <si>
     <t>Encounter.hospitalization.specialArrangement</t>
   </si>
   <si>
@@ -2118,6 +2154,10 @@
   </si>
   <si>
     <t>Location/organization to which the patient is discharged.</t>
+  </si>
+  <si>
+    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolveable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.
+In the profile, It is used only when the patient is referred to another Organization providing health services.</t>
   </si>
   <si>
     <t>.participation[typeCode=DST]</t>
@@ -2547,7 +2587,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM276"/>
+  <dimension ref="A1:AM287"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -22679,7 +22719,7 @@
         <v>41</v>
       </c>
       <c r="F182" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G182" t="s" s="2">
         <v>43</v>
@@ -27335,7 +27375,7 @@
         <v>41</v>
       </c>
       <c r="F224" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G224" t="s" s="2">
         <v>43</v>
@@ -27456,13 +27496,13 @@
         <v>43</v>
       </c>
       <c r="J225" t="s" s="2">
-        <v>159</v>
+        <v>52</v>
       </c>
       <c r="K225" t="s" s="2">
-        <v>674</v>
+        <v>87</v>
       </c>
       <c r="L225" t="s" s="2">
-        <v>675</v>
+        <v>88</v>
       </c>
       <c r="M225" s="2"/>
       <c r="N225" s="2"/>
@@ -27489,13 +27529,13 @@
         <v>43</v>
       </c>
       <c r="W225" t="s" s="2">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="X225" t="s" s="2">
-        <v>676</v>
+        <v>43</v>
       </c>
       <c r="Y225" t="s" s="2">
-        <v>677</v>
+        <v>43</v>
       </c>
       <c r="Z225" t="s" s="2">
         <v>43</v>
@@ -27513,47 +27553,47 @@
         <v>43</v>
       </c>
       <c r="AE225" t="s" s="2">
-        <v>673</v>
+        <v>89</v>
       </c>
       <c r="AF225" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG225" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH225" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI225" t="s" s="2">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="AJ225" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK225" t="s" s="2">
-        <v>678</v>
+        <v>90</v>
       </c>
       <c r="AL225" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AM225" t="s" s="2">
-        <v>679</v>
+        <v>43</v>
       </c>
     </row>
     <row r="226" hidden="true">
       <c r="A226" t="s" s="2">
-        <v>680</v>
+        <v>674</v>
       </c>
       <c r="B226" s="2"/>
       <c r="C226" t="s" s="2">
-        <v>43</v>
+        <v>92</v>
       </c>
       <c r="D226" s="2"/>
       <c r="E226" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F226" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G226" t="s" s="2">
         <v>43</v>
@@ -27565,15 +27605,17 @@
         <v>43</v>
       </c>
       <c r="J226" t="s" s="2">
-        <v>622</v>
+        <v>93</v>
       </c>
       <c r="K226" t="s" s="2">
-        <v>681</v>
+        <v>94</v>
       </c>
       <c r="L226" t="s" s="2">
-        <v>682</v>
-      </c>
-      <c r="M226" s="2"/>
+        <v>95</v>
+      </c>
+      <c r="M226" t="s" s="2">
+        <v>96</v>
+      </c>
       <c r="N226" s="2"/>
       <c r="O226" t="s" s="2">
         <v>43</v>
@@ -27610,48 +27652,48 @@
         <v>43</v>
       </c>
       <c r="AA226" t="s" s="2">
-        <v>43</v>
+        <v>97</v>
       </c>
       <c r="AB226" t="s" s="2">
-        <v>43</v>
+        <v>98</v>
       </c>
       <c r="AC226" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AD226" t="s" s="2">
-        <v>43</v>
+        <v>99</v>
       </c>
       <c r="AE226" t="s" s="2">
-        <v>680</v>
+        <v>100</v>
       </c>
       <c r="AF226" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG226" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH226" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI226" t="s" s="2">
-        <v>62</v>
+        <v>101</v>
       </c>
       <c r="AJ226" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK226" t="s" s="2">
-        <v>683</v>
+        <v>90</v>
       </c>
       <c r="AL226" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AM226" t="s" s="2">
-        <v>684</v>
+        <v>43</v>
       </c>
     </row>
     <row r="227" hidden="true">
       <c r="A227" t="s" s="2">
-        <v>685</v>
+        <v>675</v>
       </c>
       <c r="B227" s="2"/>
       <c r="C227" t="s" s="2">
@@ -27662,7 +27704,7 @@
         <v>41</v>
       </c>
       <c r="F227" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G227" t="s" s="2">
         <v>43</v>
@@ -27671,19 +27713,23 @@
         <v>43</v>
       </c>
       <c r="I227" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="J227" t="s" s="2">
-        <v>52</v>
+        <v>229</v>
       </c>
       <c r="K227" t="s" s="2">
-        <v>87</v>
+        <v>303</v>
       </c>
       <c r="L227" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="M227" s="2"/>
-      <c r="N227" s="2"/>
+        <v>304</v>
+      </c>
+      <c r="M227" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="N227" t="s" s="2">
+        <v>306</v>
+      </c>
       <c r="O227" t="s" s="2">
         <v>43</v>
       </c>
@@ -27731,47 +27777,47 @@
         <v>43</v>
       </c>
       <c r="AE227" t="s" s="2">
-        <v>89</v>
+        <v>307</v>
       </c>
       <c r="AF227" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG227" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH227" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI227" t="s" s="2">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="AJ227" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK227" t="s" s="2">
-        <v>90</v>
+        <v>308</v>
       </c>
       <c r="AL227" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AM227" t="s" s="2">
-        <v>43</v>
+        <v>309</v>
       </c>
     </row>
     <row r="228" hidden="true">
       <c r="A228" t="s" s="2">
-        <v>686</v>
+        <v>676</v>
       </c>
       <c r="B228" s="2"/>
       <c r="C228" t="s" s="2">
-        <v>92</v>
+        <v>43</v>
       </c>
       <c r="D228" s="2"/>
       <c r="E228" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F228" t="s" s="2">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G228" t="s" s="2">
         <v>43</v>
@@ -27783,17 +27829,15 @@
         <v>43</v>
       </c>
       <c r="J228" t="s" s="2">
-        <v>93</v>
+        <v>52</v>
       </c>
       <c r="K228" t="s" s="2">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="L228" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="M228" t="s" s="2">
-        <v>96</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="M228" s="2"/>
       <c r="N228" s="2"/>
       <c r="O228" t="s" s="2">
         <v>43</v>
@@ -27830,31 +27874,31 @@
         <v>43</v>
       </c>
       <c r="AA228" t="s" s="2">
-        <v>97</v>
+        <v>43</v>
       </c>
       <c r="AB228" t="s" s="2">
-        <v>98</v>
+        <v>43</v>
       </c>
       <c r="AC228" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AD228" t="s" s="2">
-        <v>99</v>
+        <v>43</v>
       </c>
       <c r="AE228" t="s" s="2">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="AF228" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG228" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH228" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI228" t="s" s="2">
-        <v>101</v>
+        <v>43</v>
       </c>
       <c r="AJ228" t="s" s="2">
         <v>43</v>
@@ -27871,18 +27915,18 @@
     </row>
     <row r="229" hidden="true">
       <c r="A229" t="s" s="2">
-        <v>687</v>
+        <v>677</v>
       </c>
       <c r="B229" s="2"/>
       <c r="C229" t="s" s="2">
-        <v>43</v>
+        <v>92</v>
       </c>
       <c r="D229" s="2"/>
       <c r="E229" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F229" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G229" t="s" s="2">
         <v>43</v>
@@ -27891,19 +27935,19 @@
         <v>43</v>
       </c>
       <c r="I229" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="J229" t="s" s="2">
-        <v>52</v>
+        <v>93</v>
       </c>
       <c r="K229" t="s" s="2">
-        <v>373</v>
+        <v>94</v>
       </c>
       <c r="L229" t="s" s="2">
-        <v>374</v>
+        <v>95</v>
       </c>
       <c r="M229" t="s" s="2">
-        <v>375</v>
+        <v>96</v>
       </c>
       <c r="N229" s="2"/>
       <c r="O229" t="s" s="2">
@@ -27941,37 +27985,37 @@
         <v>43</v>
       </c>
       <c r="AA229" t="s" s="2">
-        <v>43</v>
+        <v>97</v>
       </c>
       <c r="AB229" t="s" s="2">
-        <v>43</v>
+        <v>98</v>
       </c>
       <c r="AC229" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AD229" t="s" s="2">
-        <v>43</v>
+        <v>99</v>
       </c>
       <c r="AE229" t="s" s="2">
-        <v>376</v>
+        <v>100</v>
       </c>
       <c r="AF229" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG229" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH229" t="s" s="2">
-        <v>377</v>
+        <v>43</v>
       </c>
       <c r="AI229" t="s" s="2">
-        <v>62</v>
+        <v>101</v>
       </c>
       <c r="AJ229" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK229" t="s" s="2">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="AL229" t="s" s="2">
         <v>43</v>
@@ -27982,7 +28026,7 @@
     </row>
     <row r="230" hidden="true">
       <c r="A230" t="s" s="2">
-        <v>688</v>
+        <v>678</v>
       </c>
       <c r="B230" s="2"/>
       <c r="C230" t="s" s="2">
@@ -27990,10 +28034,10 @@
       </c>
       <c r="D230" s="2"/>
       <c r="E230" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F230" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G230" t="s" s="2">
         <v>43</v>
@@ -28008,21 +28052,23 @@
         <v>64</v>
       </c>
       <c r="K230" t="s" s="2">
-        <v>379</v>
+        <v>240</v>
       </c>
       <c r="L230" t="s" s="2">
-        <v>380</v>
+        <v>241</v>
       </c>
       <c r="M230" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="N230" s="2"/>
+        <v>242</v>
+      </c>
+      <c r="N230" t="s" s="2">
+        <v>243</v>
+      </c>
       <c r="O230" t="s" s="2">
         <v>43</v>
       </c>
       <c r="P230" s="2"/>
       <c r="Q230" t="s" s="2">
-        <v>43</v>
+        <v>679</v>
       </c>
       <c r="R230" t="s" s="2">
         <v>43</v>
@@ -28040,13 +28086,13 @@
         <v>43</v>
       </c>
       <c r="W230" t="s" s="2">
-        <v>164</v>
+        <v>43</v>
       </c>
       <c r="X230" t="s" s="2">
-        <v>382</v>
+        <v>43</v>
       </c>
       <c r="Y230" t="s" s="2">
-        <v>383</v>
+        <v>43</v>
       </c>
       <c r="Z230" t="s" s="2">
         <v>43</v>
@@ -28064,7 +28110,7 @@
         <v>43</v>
       </c>
       <c r="AE230" t="s" s="2">
-        <v>384</v>
+        <v>245</v>
       </c>
       <c r="AF230" t="s" s="2">
         <v>41</v>
@@ -28082,18 +28128,18 @@
         <v>43</v>
       </c>
       <c r="AK230" t="s" s="2">
-        <v>109</v>
+        <v>246</v>
       </c>
       <c r="AL230" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AM230" t="s" s="2">
-        <v>43</v>
+        <v>247</v>
       </c>
     </row>
     <row r="231" hidden="true">
       <c r="A231" t="s" s="2">
-        <v>689</v>
+        <v>680</v>
       </c>
       <c r="B231" s="2"/>
       <c r="C231" t="s" s="2">
@@ -28116,16 +28162,16 @@
         <v>51</v>
       </c>
       <c r="J231" t="s" s="2">
-        <v>139</v>
+        <v>52</v>
       </c>
       <c r="K231" t="s" s="2">
-        <v>386</v>
+        <v>249</v>
       </c>
       <c r="L231" t="s" s="2">
-        <v>387</v>
+        <v>250</v>
       </c>
       <c r="M231" t="s" s="2">
-        <v>388</v>
+        <v>251</v>
       </c>
       <c r="N231" s="2"/>
       <c r="O231" t="s" s="2">
@@ -28175,7 +28221,7 @@
         <v>43</v>
       </c>
       <c r="AE231" t="s" s="2">
-        <v>389</v>
+        <v>252</v>
       </c>
       <c r="AF231" t="s" s="2">
         <v>41</v>
@@ -28193,18 +28239,18 @@
         <v>43</v>
       </c>
       <c r="AK231" t="s" s="2">
-        <v>390</v>
+        <v>253</v>
       </c>
       <c r="AL231" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AM231" t="s" s="2">
-        <v>43</v>
+        <v>254</v>
       </c>
     </row>
     <row r="232" hidden="true">
       <c r="A232" t="s" s="2">
-        <v>690</v>
+        <v>681</v>
       </c>
       <c r="B232" s="2"/>
       <c r="C232" t="s" s="2">
@@ -28212,10 +28258,10 @@
       </c>
       <c r="D232" s="2"/>
       <c r="E232" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F232" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G232" t="s" s="2">
         <v>43</v>
@@ -28227,18 +28273,18 @@
         <v>51</v>
       </c>
       <c r="J232" t="s" s="2">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="K232" t="s" s="2">
-        <v>392</v>
+        <v>256</v>
       </c>
       <c r="L232" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="M232" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="N232" s="2"/>
+        <v>257</v>
+      </c>
+      <c r="M232" s="2"/>
+      <c r="N232" t="s" s="2">
+        <v>258</v>
+      </c>
       <c r="O232" t="s" s="2">
         <v>43</v>
       </c>
@@ -28286,7 +28332,7 @@
         <v>43</v>
       </c>
       <c r="AE232" t="s" s="2">
-        <v>395</v>
+        <v>259</v>
       </c>
       <c r="AF232" t="s" s="2">
         <v>41</v>
@@ -28304,18 +28350,18 @@
         <v>43</v>
       </c>
       <c r="AK232" t="s" s="2">
-        <v>109</v>
+        <v>260</v>
       </c>
       <c r="AL232" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AM232" t="s" s="2">
-        <v>43</v>
+        <v>261</v>
       </c>
     </row>
     <row r="233" hidden="true">
       <c r="A233" t="s" s="2">
-        <v>691</v>
+        <v>682</v>
       </c>
       <c r="B233" s="2"/>
       <c r="C233" t="s" s="2">
@@ -28323,7 +28369,7 @@
       </c>
       <c r="D233" s="2"/>
       <c r="E233" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F233" t="s" s="2">
         <v>50</v>
@@ -28335,19 +28381,21 @@
         <v>43</v>
       </c>
       <c r="I233" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="J233" t="s" s="2">
-        <v>159</v>
+        <v>52</v>
       </c>
       <c r="K233" t="s" s="2">
-        <v>692</v>
+        <v>263</v>
       </c>
       <c r="L233" t="s" s="2">
-        <v>693</v>
+        <v>264</v>
       </c>
       <c r="M233" s="2"/>
-      <c r="N233" s="2"/>
+      <c r="N233" t="s" s="2">
+        <v>265</v>
+      </c>
       <c r="O233" t="s" s="2">
         <v>43</v>
       </c>
@@ -28371,13 +28419,13 @@
         <v>43</v>
       </c>
       <c r="W233" t="s" s="2">
-        <v>294</v>
+        <v>43</v>
       </c>
       <c r="X233" t="s" s="2">
-        <v>694</v>
+        <v>43</v>
       </c>
       <c r="Y233" t="s" s="2">
-        <v>695</v>
+        <v>43</v>
       </c>
       <c r="Z233" t="s" s="2">
         <v>43</v>
@@ -28395,7 +28443,7 @@
         <v>43</v>
       </c>
       <c r="AE233" t="s" s="2">
-        <v>691</v>
+        <v>266</v>
       </c>
       <c r="AF233" t="s" s="2">
         <v>41</v>
@@ -28413,18 +28461,18 @@
         <v>43</v>
       </c>
       <c r="AK233" t="s" s="2">
-        <v>696</v>
+        <v>267</v>
       </c>
       <c r="AL233" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AM233" t="s" s="2">
-        <v>697</v>
+        <v>268</v>
       </c>
     </row>
     <row r="234" hidden="true">
       <c r="A234" t="s" s="2">
-        <v>698</v>
+        <v>683</v>
       </c>
       <c r="B234" s="2"/>
       <c r="C234" t="s" s="2">
@@ -28444,19 +28492,23 @@
         <v>43</v>
       </c>
       <c r="I234" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="J234" t="s" s="2">
-        <v>52</v>
+        <v>270</v>
       </c>
       <c r="K234" t="s" s="2">
-        <v>87</v>
+        <v>271</v>
       </c>
       <c r="L234" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="M234" s="2"/>
-      <c r="N234" s="2"/>
+        <v>272</v>
+      </c>
+      <c r="M234" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="N234" t="s" s="2">
+        <v>274</v>
+      </c>
       <c r="O234" t="s" s="2">
         <v>43</v>
       </c>
@@ -28504,7 +28556,7 @@
         <v>43</v>
       </c>
       <c r="AE234" t="s" s="2">
-        <v>89</v>
+        <v>275</v>
       </c>
       <c r="AF234" t="s" s="2">
         <v>41</v>
@@ -28516,35 +28568,35 @@
         <v>43</v>
       </c>
       <c r="AI234" t="s" s="2">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="AJ234" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK234" t="s" s="2">
-        <v>90</v>
+        <v>276</v>
       </c>
       <c r="AL234" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AM234" t="s" s="2">
-        <v>43</v>
+        <v>277</v>
       </c>
     </row>
     <row r="235" hidden="true">
       <c r="A235" t="s" s="2">
-        <v>699</v>
+        <v>684</v>
       </c>
       <c r="B235" s="2"/>
       <c r="C235" t="s" s="2">
-        <v>92</v>
+        <v>43</v>
       </c>
       <c r="D235" s="2"/>
       <c r="E235" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F235" t="s" s="2">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G235" t="s" s="2">
         <v>43</v>
@@ -28553,21 +28605,23 @@
         <v>43</v>
       </c>
       <c r="I235" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="J235" t="s" s="2">
-        <v>93</v>
+        <v>52</v>
       </c>
       <c r="K235" t="s" s="2">
-        <v>94</v>
+        <v>318</v>
       </c>
       <c r="L235" t="s" s="2">
-        <v>95</v>
+        <v>319</v>
       </c>
       <c r="M235" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="N235" s="2"/>
+        <v>320</v>
+      </c>
+      <c r="N235" t="s" s="2">
+        <v>321</v>
+      </c>
       <c r="O235" t="s" s="2">
         <v>43</v>
       </c>
@@ -28603,48 +28657,48 @@
         <v>43</v>
       </c>
       <c r="AA235" t="s" s="2">
-        <v>97</v>
+        <v>43</v>
       </c>
       <c r="AB235" t="s" s="2">
-        <v>98</v>
+        <v>43</v>
       </c>
       <c r="AC235" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AD235" t="s" s="2">
-        <v>99</v>
+        <v>43</v>
       </c>
       <c r="AE235" t="s" s="2">
-        <v>100</v>
+        <v>322</v>
       </c>
       <c r="AF235" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG235" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH235" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI235" t="s" s="2">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="AJ235" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK235" t="s" s="2">
-        <v>90</v>
+        <v>323</v>
       </c>
       <c r="AL235" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AM235" t="s" s="2">
-        <v>43</v>
+        <v>324</v>
       </c>
     </row>
     <row r="236" hidden="true">
       <c r="A236" t="s" s="2">
-        <v>700</v>
+        <v>685</v>
       </c>
       <c r="B236" s="2"/>
       <c r="C236" t="s" s="2">
@@ -28655,7 +28709,7 @@
         <v>41</v>
       </c>
       <c r="F236" t="s" s="2">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G236" t="s" s="2">
         <v>43</v>
@@ -28664,23 +28718,19 @@
         <v>43</v>
       </c>
       <c r="I236" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="J236" t="s" s="2">
-        <v>229</v>
+        <v>159</v>
       </c>
       <c r="K236" t="s" s="2">
-        <v>303</v>
+        <v>686</v>
       </c>
       <c r="L236" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="M236" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="N236" t="s" s="2">
-        <v>306</v>
-      </c>
+        <v>687</v>
+      </c>
+      <c r="M236" s="2"/>
+      <c r="N236" s="2"/>
       <c r="O236" t="s" s="2">
         <v>43</v>
       </c>
@@ -28704,13 +28754,13 @@
         <v>43</v>
       </c>
       <c r="W236" t="s" s="2">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="X236" t="s" s="2">
-        <v>43</v>
+        <v>688</v>
       </c>
       <c r="Y236" t="s" s="2">
-        <v>43</v>
+        <v>689</v>
       </c>
       <c r="Z236" t="s" s="2">
         <v>43</v>
@@ -28728,7 +28778,7 @@
         <v>43</v>
       </c>
       <c r="AE236" t="s" s="2">
-        <v>307</v>
+        <v>685</v>
       </c>
       <c r="AF236" t="s" s="2">
         <v>41</v>
@@ -28746,18 +28796,18 @@
         <v>43</v>
       </c>
       <c r="AK236" t="s" s="2">
-        <v>308</v>
+        <v>690</v>
       </c>
       <c r="AL236" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AM236" t="s" s="2">
-        <v>309</v>
+        <v>691</v>
       </c>
     </row>
     <row r="237" hidden="true">
       <c r="A237" t="s" s="2">
-        <v>701</v>
+        <v>692</v>
       </c>
       <c r="B237" s="2"/>
       <c r="C237" t="s" s="2">
@@ -28768,7 +28818,7 @@
         <v>41</v>
       </c>
       <c r="F237" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G237" t="s" s="2">
         <v>43</v>
@@ -28780,15 +28830,17 @@
         <v>43</v>
       </c>
       <c r="J237" t="s" s="2">
-        <v>52</v>
+        <v>622</v>
       </c>
       <c r="K237" t="s" s="2">
-        <v>87</v>
+        <v>693</v>
       </c>
       <c r="L237" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="M237" s="2"/>
+        <v>694</v>
+      </c>
+      <c r="M237" t="s" s="2">
+        <v>695</v>
+      </c>
       <c r="N237" s="2"/>
       <c r="O237" t="s" s="2">
         <v>43</v>
@@ -28837,7 +28889,7 @@
         <v>43</v>
       </c>
       <c r="AE237" t="s" s="2">
-        <v>89</v>
+        <v>692</v>
       </c>
       <c r="AF237" t="s" s="2">
         <v>41</v>
@@ -28849,35 +28901,35 @@
         <v>43</v>
       </c>
       <c r="AI237" t="s" s="2">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="AJ237" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK237" t="s" s="2">
-        <v>90</v>
+        <v>696</v>
       </c>
       <c r="AL237" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AM237" t="s" s="2">
-        <v>43</v>
+        <v>697</v>
       </c>
     </row>
     <row r="238" hidden="true">
       <c r="A238" t="s" s="2">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="B238" s="2"/>
       <c r="C238" t="s" s="2">
-        <v>92</v>
+        <v>43</v>
       </c>
       <c r="D238" s="2"/>
       <c r="E238" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F238" t="s" s="2">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G238" t="s" s="2">
         <v>43</v>
@@ -28889,17 +28941,15 @@
         <v>43</v>
       </c>
       <c r="J238" t="s" s="2">
-        <v>93</v>
+        <v>52</v>
       </c>
       <c r="K238" t="s" s="2">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="L238" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="M238" t="s" s="2">
-        <v>96</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="M238" s="2"/>
       <c r="N238" s="2"/>
       <c r="O238" t="s" s="2">
         <v>43</v>
@@ -28936,31 +28986,31 @@
         <v>43</v>
       </c>
       <c r="AA238" t="s" s="2">
-        <v>97</v>
+        <v>43</v>
       </c>
       <c r="AB238" t="s" s="2">
-        <v>98</v>
+        <v>43</v>
       </c>
       <c r="AC238" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AD238" t="s" s="2">
-        <v>99</v>
+        <v>43</v>
       </c>
       <c r="AE238" t="s" s="2">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="AF238" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG238" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH238" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI238" t="s" s="2">
-        <v>101</v>
+        <v>43</v>
       </c>
       <c r="AJ238" t="s" s="2">
         <v>43</v>
@@ -28977,18 +29027,18 @@
     </row>
     <row r="239" hidden="true">
       <c r="A239" t="s" s="2">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="B239" s="2"/>
       <c r="C239" t="s" s="2">
-        <v>43</v>
+        <v>92</v>
       </c>
       <c r="D239" s="2"/>
       <c r="E239" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F239" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G239" t="s" s="2">
         <v>43</v>
@@ -28997,29 +29047,27 @@
         <v>43</v>
       </c>
       <c r="I239" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="J239" t="s" s="2">
-        <v>64</v>
+        <v>93</v>
       </c>
       <c r="K239" t="s" s="2">
-        <v>240</v>
+        <v>94</v>
       </c>
       <c r="L239" t="s" s="2">
-        <v>241</v>
+        <v>95</v>
       </c>
       <c r="M239" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="N239" t="s" s="2">
-        <v>243</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="N239" s="2"/>
       <c r="O239" t="s" s="2">
         <v>43</v>
       </c>
       <c r="P239" s="2"/>
       <c r="Q239" t="s" s="2">
-        <v>704</v>
+        <v>43</v>
       </c>
       <c r="R239" t="s" s="2">
         <v>43</v>
@@ -29049,48 +29097,48 @@
         <v>43</v>
       </c>
       <c r="AA239" t="s" s="2">
-        <v>43</v>
+        <v>97</v>
       </c>
       <c r="AB239" t="s" s="2">
-        <v>43</v>
+        <v>98</v>
       </c>
       <c r="AC239" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AD239" t="s" s="2">
-        <v>43</v>
+        <v>99</v>
       </c>
       <c r="AE239" t="s" s="2">
-        <v>245</v>
+        <v>100</v>
       </c>
       <c r="AF239" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG239" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH239" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI239" t="s" s="2">
-        <v>62</v>
+        <v>101</v>
       </c>
       <c r="AJ239" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK239" t="s" s="2">
-        <v>246</v>
+        <v>90</v>
       </c>
       <c r="AL239" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AM239" t="s" s="2">
-        <v>247</v>
+        <v>43</v>
       </c>
     </row>
     <row r="240" hidden="true">
       <c r="A240" t="s" s="2">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="B240" s="2"/>
       <c r="C240" t="s" s="2">
@@ -29098,10 +29146,10 @@
       </c>
       <c r="D240" s="2"/>
       <c r="E240" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F240" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G240" t="s" s="2">
         <v>43</v>
@@ -29116,13 +29164,13 @@
         <v>52</v>
       </c>
       <c r="K240" t="s" s="2">
-        <v>249</v>
+        <v>373</v>
       </c>
       <c r="L240" t="s" s="2">
-        <v>250</v>
+        <v>374</v>
       </c>
       <c r="M240" t="s" s="2">
-        <v>251</v>
+        <v>375</v>
       </c>
       <c r="N240" s="2"/>
       <c r="O240" t="s" s="2">
@@ -29172,7 +29220,7 @@
         <v>43</v>
       </c>
       <c r="AE240" t="s" s="2">
-        <v>252</v>
+        <v>376</v>
       </c>
       <c r="AF240" t="s" s="2">
         <v>41</v>
@@ -29181,7 +29229,7 @@
         <v>50</v>
       </c>
       <c r="AH240" t="s" s="2">
-        <v>43</v>
+        <v>377</v>
       </c>
       <c r="AI240" t="s" s="2">
         <v>62</v>
@@ -29190,18 +29238,18 @@
         <v>43</v>
       </c>
       <c r="AK240" t="s" s="2">
-        <v>253</v>
+        <v>109</v>
       </c>
       <c r="AL240" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AM240" t="s" s="2">
-        <v>254</v>
+        <v>43</v>
       </c>
     </row>
     <row r="241" hidden="true">
       <c r="A241" t="s" s="2">
-        <v>706</v>
+        <v>701</v>
       </c>
       <c r="B241" s="2"/>
       <c r="C241" t="s" s="2">
@@ -29209,10 +29257,10 @@
       </c>
       <c r="D241" s="2"/>
       <c r="E241" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F241" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G241" t="s" s="2">
         <v>43</v>
@@ -29224,18 +29272,18 @@
         <v>51</v>
       </c>
       <c r="J241" t="s" s="2">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="K241" t="s" s="2">
-        <v>256</v>
+        <v>379</v>
       </c>
       <c r="L241" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="M241" s="2"/>
-      <c r="N241" t="s" s="2">
-        <v>258</v>
-      </c>
+        <v>380</v>
+      </c>
+      <c r="M241" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="N241" s="2"/>
       <c r="O241" t="s" s="2">
         <v>43</v>
       </c>
@@ -29259,13 +29307,13 @@
         <v>43</v>
       </c>
       <c r="W241" t="s" s="2">
-        <v>43</v>
+        <v>164</v>
       </c>
       <c r="X241" t="s" s="2">
-        <v>43</v>
+        <v>382</v>
       </c>
       <c r="Y241" t="s" s="2">
-        <v>43</v>
+        <v>383</v>
       </c>
       <c r="Z241" t="s" s="2">
         <v>43</v>
@@ -29283,7 +29331,7 @@
         <v>43</v>
       </c>
       <c r="AE241" t="s" s="2">
-        <v>259</v>
+        <v>384</v>
       </c>
       <c r="AF241" t="s" s="2">
         <v>41</v>
@@ -29301,18 +29349,18 @@
         <v>43</v>
       </c>
       <c r="AK241" t="s" s="2">
-        <v>260</v>
+        <v>109</v>
       </c>
       <c r="AL241" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AM241" t="s" s="2">
-        <v>261</v>
+        <v>43</v>
       </c>
     </row>
     <row r="242" hidden="true">
       <c r="A242" t="s" s="2">
-        <v>707</v>
+        <v>702</v>
       </c>
       <c r="B242" s="2"/>
       <c r="C242" t="s" s="2">
@@ -29320,10 +29368,10 @@
       </c>
       <c r="D242" s="2"/>
       <c r="E242" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F242" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G242" t="s" s="2">
         <v>43</v>
@@ -29335,18 +29383,18 @@
         <v>51</v>
       </c>
       <c r="J242" t="s" s="2">
-        <v>52</v>
+        <v>139</v>
       </c>
       <c r="K242" t="s" s="2">
-        <v>263</v>
+        <v>386</v>
       </c>
       <c r="L242" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="M242" s="2"/>
-      <c r="N242" t="s" s="2">
-        <v>265</v>
-      </c>
+        <v>387</v>
+      </c>
+      <c r="M242" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="N242" s="2"/>
       <c r="O242" t="s" s="2">
         <v>43</v>
       </c>
@@ -29394,7 +29442,7 @@
         <v>43</v>
       </c>
       <c r="AE242" t="s" s="2">
-        <v>266</v>
+        <v>389</v>
       </c>
       <c r="AF242" t="s" s="2">
         <v>41</v>
@@ -29412,18 +29460,18 @@
         <v>43</v>
       </c>
       <c r="AK242" t="s" s="2">
-        <v>267</v>
+        <v>390</v>
       </c>
       <c r="AL242" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AM242" t="s" s="2">
-        <v>268</v>
+        <v>43</v>
       </c>
     </row>
     <row r="243" hidden="true">
       <c r="A243" t="s" s="2">
-        <v>708</v>
+        <v>703</v>
       </c>
       <c r="B243" s="2"/>
       <c r="C243" t="s" s="2">
@@ -29446,20 +29494,18 @@
         <v>51</v>
       </c>
       <c r="J243" t="s" s="2">
-        <v>270</v>
+        <v>52</v>
       </c>
       <c r="K243" t="s" s="2">
-        <v>271</v>
+        <v>392</v>
       </c>
       <c r="L243" t="s" s="2">
-        <v>272</v>
+        <v>393</v>
       </c>
       <c r="M243" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="N243" t="s" s="2">
-        <v>274</v>
-      </c>
+        <v>394</v>
+      </c>
+      <c r="N243" s="2"/>
       <c r="O243" t="s" s="2">
         <v>43</v>
       </c>
@@ -29507,7 +29553,7 @@
         <v>43</v>
       </c>
       <c r="AE243" t="s" s="2">
-        <v>275</v>
+        <v>395</v>
       </c>
       <c r="AF243" t="s" s="2">
         <v>41</v>
@@ -29525,18 +29571,18 @@
         <v>43</v>
       </c>
       <c r="AK243" t="s" s="2">
-        <v>276</v>
+        <v>109</v>
       </c>
       <c r="AL243" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AM243" t="s" s="2">
-        <v>277</v>
+        <v>43</v>
       </c>
     </row>
     <row r="244" hidden="true">
       <c r="A244" t="s" s="2">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="B244" s="2"/>
       <c r="C244" t="s" s="2">
@@ -29547,7 +29593,7 @@
         <v>41</v>
       </c>
       <c r="F244" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G244" t="s" s="2">
         <v>43</v>
@@ -29556,23 +29602,19 @@
         <v>43</v>
       </c>
       <c r="I244" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="J244" t="s" s="2">
-        <v>52</v>
+        <v>159</v>
       </c>
       <c r="K244" t="s" s="2">
-        <v>318</v>
+        <v>705</v>
       </c>
       <c r="L244" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="M244" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="N244" t="s" s="2">
-        <v>321</v>
-      </c>
+        <v>706</v>
+      </c>
+      <c r="M244" s="2"/>
+      <c r="N244" s="2"/>
       <c r="O244" t="s" s="2">
         <v>43</v>
       </c>
@@ -29596,13 +29638,13 @@
         <v>43</v>
       </c>
       <c r="W244" t="s" s="2">
-        <v>43</v>
+        <v>294</v>
       </c>
       <c r="X244" t="s" s="2">
-        <v>43</v>
+        <v>707</v>
       </c>
       <c r="Y244" t="s" s="2">
-        <v>43</v>
+        <v>708</v>
       </c>
       <c r="Z244" t="s" s="2">
         <v>43</v>
@@ -29620,7 +29662,7 @@
         <v>43</v>
       </c>
       <c r="AE244" t="s" s="2">
-        <v>322</v>
+        <v>704</v>
       </c>
       <c r="AF244" t="s" s="2">
         <v>41</v>
@@ -29638,18 +29680,18 @@
         <v>43</v>
       </c>
       <c r="AK244" t="s" s="2">
-        <v>323</v>
+        <v>709</v>
       </c>
       <c r="AL244" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AM244" t="s" s="2">
-        <v>324</v>
+        <v>710</v>
       </c>
     </row>
     <row r="245" hidden="true">
       <c r="A245" t="s" s="2">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="B245" s="2"/>
       <c r="C245" t="s" s="2">
@@ -29657,10 +29699,10 @@
       </c>
       <c r="D245" s="2"/>
       <c r="E245" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F245" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G245" t="s" s="2">
         <v>43</v>
@@ -29672,17 +29714,15 @@
         <v>43</v>
       </c>
       <c r="J245" t="s" s="2">
-        <v>213</v>
+        <v>52</v>
       </c>
       <c r="K245" t="s" s="2">
-        <v>711</v>
+        <v>87</v>
       </c>
       <c r="L245" t="s" s="2">
-        <v>712</v>
-      </c>
-      <c r="M245" t="s" s="2">
-        <v>713</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="M245" s="2"/>
       <c r="N245" s="2"/>
       <c r="O245" t="s" s="2">
         <v>43</v>
@@ -29731,25 +29771,25 @@
         <v>43</v>
       </c>
       <c r="AE245" t="s" s="2">
-        <v>710</v>
+        <v>89</v>
       </c>
       <c r="AF245" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG245" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH245" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI245" t="s" s="2">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="AJ245" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK245" t="s" s="2">
-        <v>714</v>
+        <v>90</v>
       </c>
       <c r="AL245" t="s" s="2">
         <v>43</v>
@@ -29760,18 +29800,18 @@
     </row>
     <row r="246" hidden="true">
       <c r="A246" t="s" s="2">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="B246" s="2"/>
       <c r="C246" t="s" s="2">
-        <v>43</v>
+        <v>92</v>
       </c>
       <c r="D246" s="2"/>
       <c r="E246" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F246" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G246" t="s" s="2">
         <v>43</v>
@@ -29783,15 +29823,17 @@
         <v>43</v>
       </c>
       <c r="J246" t="s" s="2">
-        <v>52</v>
+        <v>93</v>
       </c>
       <c r="K246" t="s" s="2">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="L246" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="M246" s="2"/>
+        <v>95</v>
+      </c>
+      <c r="M246" t="s" s="2">
+        <v>96</v>
+      </c>
       <c r="N246" s="2"/>
       <c r="O246" t="s" s="2">
         <v>43</v>
@@ -29828,31 +29870,31 @@
         <v>43</v>
       </c>
       <c r="AA246" t="s" s="2">
-        <v>43</v>
+        <v>97</v>
       </c>
       <c r="AB246" t="s" s="2">
-        <v>43</v>
+        <v>98</v>
       </c>
       <c r="AC246" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AD246" t="s" s="2">
-        <v>43</v>
+        <v>99</v>
       </c>
       <c r="AE246" t="s" s="2">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="AF246" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG246" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH246" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI246" t="s" s="2">
-        <v>43</v>
+        <v>101</v>
       </c>
       <c r="AJ246" t="s" s="2">
         <v>43</v>
@@ -29869,11 +29911,11 @@
     </row>
     <row r="247" hidden="true">
       <c r="A247" t="s" s="2">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="B247" s="2"/>
       <c r="C247" t="s" s="2">
-        <v>92</v>
+        <v>43</v>
       </c>
       <c r="D247" s="2"/>
       <c r="E247" t="s" s="2">
@@ -29889,21 +29931,23 @@
         <v>43</v>
       </c>
       <c r="I247" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="J247" t="s" s="2">
-        <v>93</v>
+        <v>229</v>
       </c>
       <c r="K247" t="s" s="2">
-        <v>94</v>
+        <v>303</v>
       </c>
       <c r="L247" t="s" s="2">
-        <v>95</v>
+        <v>304</v>
       </c>
       <c r="M247" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="N247" s="2"/>
+        <v>305</v>
+      </c>
+      <c r="N247" t="s" s="2">
+        <v>306</v>
+      </c>
       <c r="O247" t="s" s="2">
         <v>43</v>
       </c>
@@ -29951,7 +29995,7 @@
         <v>43</v>
       </c>
       <c r="AE247" t="s" s="2">
-        <v>100</v>
+        <v>307</v>
       </c>
       <c r="AF247" t="s" s="2">
         <v>41</v>
@@ -29963,60 +30007,56 @@
         <v>43</v>
       </c>
       <c r="AI247" t="s" s="2">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="AJ247" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK247" t="s" s="2">
-        <v>90</v>
+        <v>308</v>
       </c>
       <c r="AL247" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AM247" t="s" s="2">
-        <v>43</v>
+        <v>309</v>
       </c>
     </row>
     <row r="248" hidden="true">
       <c r="A248" t="s" s="2">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="B248" s="2"/>
       <c r="C248" t="s" s="2">
-        <v>220</v>
+        <v>43</v>
       </c>
       <c r="D248" s="2"/>
       <c r="E248" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F248" t="s" s="2">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G248" t="s" s="2">
         <v>43</v>
       </c>
       <c r="H248" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="I248" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="J248" t="s" s="2">
-        <v>93</v>
+        <v>52</v>
       </c>
       <c r="K248" t="s" s="2">
-        <v>221</v>
+        <v>87</v>
       </c>
       <c r="L248" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="M248" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="N248" t="s" s="2">
-        <v>136</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="M248" s="2"/>
+      <c r="N248" s="2"/>
       <c r="O248" t="s" s="2">
         <v>43</v>
       </c>
@@ -30064,25 +30104,25 @@
         <v>43</v>
       </c>
       <c r="AE248" t="s" s="2">
-        <v>223</v>
+        <v>89</v>
       </c>
       <c r="AF248" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG248" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH248" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI248" t="s" s="2">
-        <v>101</v>
+        <v>43</v>
       </c>
       <c r="AJ248" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK248" t="s" s="2">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="AL248" t="s" s="2">
         <v>43</v>
@@ -30093,18 +30133,18 @@
     </row>
     <row r="249" hidden="true">
       <c r="A249" t="s" s="2">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="B249" s="2"/>
       <c r="C249" t="s" s="2">
-        <v>43</v>
+        <v>92</v>
       </c>
       <c r="D249" s="2"/>
       <c r="E249" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F249" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G249" t="s" s="2">
         <v>43</v>
@@ -30116,15 +30156,17 @@
         <v>43</v>
       </c>
       <c r="J249" t="s" s="2">
-        <v>719</v>
+        <v>93</v>
       </c>
       <c r="K249" t="s" s="2">
-        <v>720</v>
+        <v>94</v>
       </c>
       <c r="L249" t="s" s="2">
-        <v>721</v>
-      </c>
-      <c r="M249" s="2"/>
+        <v>95</v>
+      </c>
+      <c r="M249" t="s" s="2">
+        <v>96</v>
+      </c>
       <c r="N249" s="2"/>
       <c r="O249" t="s" s="2">
         <v>43</v>
@@ -30161,48 +30203,48 @@
         <v>43</v>
       </c>
       <c r="AA249" t="s" s="2">
-        <v>43</v>
+        <v>97</v>
       </c>
       <c r="AB249" t="s" s="2">
-        <v>43</v>
+        <v>98</v>
       </c>
       <c r="AC249" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AD249" t="s" s="2">
-        <v>43</v>
+        <v>99</v>
       </c>
       <c r="AE249" t="s" s="2">
-        <v>718</v>
+        <v>100</v>
       </c>
       <c r="AF249" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AG249" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH249" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI249" t="s" s="2">
-        <v>62</v>
+        <v>101</v>
       </c>
       <c r="AJ249" t="s" s="2">
-        <v>722</v>
+        <v>43</v>
       </c>
       <c r="AK249" t="s" s="2">
-        <v>460</v>
+        <v>90</v>
       </c>
       <c r="AL249" t="s" s="2">
-        <v>723</v>
+        <v>43</v>
       </c>
       <c r="AM249" t="s" s="2">
-        <v>724</v>
+        <v>43</v>
       </c>
     </row>
     <row r="250" hidden="true">
       <c r="A250" t="s" s="2">
-        <v>725</v>
+        <v>716</v>
       </c>
       <c r="B250" s="2"/>
       <c r="C250" t="s" s="2">
@@ -30210,10 +30252,10 @@
       </c>
       <c r="D250" s="2"/>
       <c r="E250" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F250" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G250" t="s" s="2">
         <v>43</v>
@@ -30222,25 +30264,29 @@
         <v>43</v>
       </c>
       <c r="I250" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="J250" t="s" s="2">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="K250" t="s" s="2">
-        <v>87</v>
+        <v>240</v>
       </c>
       <c r="L250" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="M250" s="2"/>
-      <c r="N250" s="2"/>
+        <v>241</v>
+      </c>
+      <c r="M250" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="N250" t="s" s="2">
+        <v>243</v>
+      </c>
       <c r="O250" t="s" s="2">
         <v>43</v>
       </c>
       <c r="P250" s="2"/>
       <c r="Q250" t="s" s="2">
-        <v>43</v>
+        <v>717</v>
       </c>
       <c r="R250" t="s" s="2">
         <v>43</v>
@@ -30282,7 +30328,7 @@
         <v>43</v>
       </c>
       <c r="AE250" t="s" s="2">
-        <v>89</v>
+        <v>245</v>
       </c>
       <c r="AF250" t="s" s="2">
         <v>41</v>
@@ -30294,35 +30340,35 @@
         <v>43</v>
       </c>
       <c r="AI250" t="s" s="2">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="AJ250" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK250" t="s" s="2">
-        <v>90</v>
+        <v>246</v>
       </c>
       <c r="AL250" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AM250" t="s" s="2">
-        <v>43</v>
+        <v>247</v>
       </c>
     </row>
     <row r="251" hidden="true">
       <c r="A251" t="s" s="2">
-        <v>726</v>
+        <v>718</v>
       </c>
       <c r="B251" s="2"/>
       <c r="C251" t="s" s="2">
-        <v>92</v>
+        <v>43</v>
       </c>
       <c r="D251" s="2"/>
       <c r="E251" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F251" t="s" s="2">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G251" t="s" s="2">
         <v>43</v>
@@ -30331,19 +30377,19 @@
         <v>43</v>
       </c>
       <c r="I251" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="J251" t="s" s="2">
-        <v>93</v>
+        <v>52</v>
       </c>
       <c r="K251" t="s" s="2">
-        <v>94</v>
+        <v>249</v>
       </c>
       <c r="L251" t="s" s="2">
-        <v>95</v>
+        <v>250</v>
       </c>
       <c r="M251" t="s" s="2">
-        <v>96</v>
+        <v>251</v>
       </c>
       <c r="N251" s="2"/>
       <c r="O251" t="s" s="2">
@@ -30381,48 +30427,48 @@
         <v>43</v>
       </c>
       <c r="AA251" t="s" s="2">
-        <v>97</v>
+        <v>43</v>
       </c>
       <c r="AB251" t="s" s="2">
-        <v>98</v>
+        <v>43</v>
       </c>
       <c r="AC251" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AD251" t="s" s="2">
-        <v>99</v>
+        <v>43</v>
       </c>
       <c r="AE251" t="s" s="2">
-        <v>100</v>
+        <v>252</v>
       </c>
       <c r="AF251" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG251" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH251" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI251" t="s" s="2">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="AJ251" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK251" t="s" s="2">
-        <v>90</v>
+        <v>253</v>
       </c>
       <c r="AL251" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AM251" t="s" s="2">
-        <v>43</v>
+        <v>254</v>
       </c>
     </row>
     <row r="252" hidden="true">
       <c r="A252" t="s" s="2">
-        <v>727</v>
+        <v>719</v>
       </c>
       <c r="B252" s="2"/>
       <c r="C252" t="s" s="2">
@@ -30445,18 +30491,18 @@
         <v>51</v>
       </c>
       <c r="J252" t="s" s="2">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="K252" t="s" s="2">
-        <v>373</v>
+        <v>256</v>
       </c>
       <c r="L252" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="M252" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="N252" s="2"/>
+        <v>257</v>
+      </c>
+      <c r="M252" s="2"/>
+      <c r="N252" t="s" s="2">
+        <v>258</v>
+      </c>
       <c r="O252" t="s" s="2">
         <v>43</v>
       </c>
@@ -30504,7 +30550,7 @@
         <v>43</v>
       </c>
       <c r="AE252" t="s" s="2">
-        <v>376</v>
+        <v>259</v>
       </c>
       <c r="AF252" t="s" s="2">
         <v>41</v>
@@ -30513,7 +30559,7 @@
         <v>50</v>
       </c>
       <c r="AH252" t="s" s="2">
-        <v>377</v>
+        <v>43</v>
       </c>
       <c r="AI252" t="s" s="2">
         <v>62</v>
@@ -30522,18 +30568,18 @@
         <v>43</v>
       </c>
       <c r="AK252" t="s" s="2">
-        <v>109</v>
+        <v>260</v>
       </c>
       <c r="AL252" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AM252" t="s" s="2">
-        <v>43</v>
+        <v>261</v>
       </c>
     </row>
     <row r="253" hidden="true">
       <c r="A253" t="s" s="2">
-        <v>728</v>
+        <v>720</v>
       </c>
       <c r="B253" s="2"/>
       <c r="C253" t="s" s="2">
@@ -30541,10 +30587,10 @@
       </c>
       <c r="D253" s="2"/>
       <c r="E253" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F253" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G253" t="s" s="2">
         <v>43</v>
@@ -30556,18 +30602,18 @@
         <v>51</v>
       </c>
       <c r="J253" t="s" s="2">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="K253" t="s" s="2">
-        <v>379</v>
+        <v>263</v>
       </c>
       <c r="L253" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="M253" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="N253" s="2"/>
+        <v>264</v>
+      </c>
+      <c r="M253" s="2"/>
+      <c r="N253" t="s" s="2">
+        <v>265</v>
+      </c>
       <c r="O253" t="s" s="2">
         <v>43</v>
       </c>
@@ -30591,13 +30637,13 @@
         <v>43</v>
       </c>
       <c r="W253" t="s" s="2">
-        <v>164</v>
+        <v>43</v>
       </c>
       <c r="X253" t="s" s="2">
-        <v>382</v>
+        <v>43</v>
       </c>
       <c r="Y253" t="s" s="2">
-        <v>383</v>
+        <v>43</v>
       </c>
       <c r="Z253" t="s" s="2">
         <v>43</v>
@@ -30615,7 +30661,7 @@
         <v>43</v>
       </c>
       <c r="AE253" t="s" s="2">
-        <v>384</v>
+        <v>266</v>
       </c>
       <c r="AF253" t="s" s="2">
         <v>41</v>
@@ -30633,18 +30679,18 @@
         <v>43</v>
       </c>
       <c r="AK253" t="s" s="2">
-        <v>109</v>
+        <v>267</v>
       </c>
       <c r="AL253" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AM253" t="s" s="2">
-        <v>43</v>
+        <v>268</v>
       </c>
     </row>
     <row r="254" hidden="true">
       <c r="A254" t="s" s="2">
-        <v>729</v>
+        <v>721</v>
       </c>
       <c r="B254" s="2"/>
       <c r="C254" t="s" s="2">
@@ -30667,18 +30713,20 @@
         <v>51</v>
       </c>
       <c r="J254" t="s" s="2">
-        <v>139</v>
+        <v>270</v>
       </c>
       <c r="K254" t="s" s="2">
-        <v>386</v>
+        <v>271</v>
       </c>
       <c r="L254" t="s" s="2">
-        <v>387</v>
+        <v>272</v>
       </c>
       <c r="M254" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="N254" s="2"/>
+        <v>273</v>
+      </c>
+      <c r="N254" t="s" s="2">
+        <v>274</v>
+      </c>
       <c r="O254" t="s" s="2">
         <v>43</v>
       </c>
@@ -30726,7 +30774,7 @@
         <v>43</v>
       </c>
       <c r="AE254" t="s" s="2">
-        <v>389</v>
+        <v>275</v>
       </c>
       <c r="AF254" t="s" s="2">
         <v>41</v>
@@ -30744,18 +30792,18 @@
         <v>43</v>
       </c>
       <c r="AK254" t="s" s="2">
-        <v>390</v>
+        <v>276</v>
       </c>
       <c r="AL254" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AM254" t="s" s="2">
-        <v>43</v>
+        <v>277</v>
       </c>
     </row>
     <row r="255" hidden="true">
       <c r="A255" t="s" s="2">
-        <v>730</v>
+        <v>722</v>
       </c>
       <c r="B255" s="2"/>
       <c r="C255" t="s" s="2">
@@ -30781,15 +30829,17 @@
         <v>52</v>
       </c>
       <c r="K255" t="s" s="2">
-        <v>392</v>
+        <v>318</v>
       </c>
       <c r="L255" t="s" s="2">
-        <v>393</v>
+        <v>319</v>
       </c>
       <c r="M255" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="N255" s="2"/>
+        <v>320</v>
+      </c>
+      <c r="N255" t="s" s="2">
+        <v>321</v>
+      </c>
       <c r="O255" t="s" s="2">
         <v>43</v>
       </c>
@@ -30837,7 +30887,7 @@
         <v>43</v>
       </c>
       <c r="AE255" t="s" s="2">
-        <v>395</v>
+        <v>322</v>
       </c>
       <c r="AF255" t="s" s="2">
         <v>41</v>
@@ -30855,18 +30905,18 @@
         <v>43</v>
       </c>
       <c r="AK255" t="s" s="2">
-        <v>109</v>
+        <v>323</v>
       </c>
       <c r="AL255" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AM255" t="s" s="2">
-        <v>43</v>
+        <v>324</v>
       </c>
     </row>
     <row r="256" hidden="true">
       <c r="A256" t="s" s="2">
-        <v>731</v>
+        <v>723</v>
       </c>
       <c r="B256" s="2"/>
       <c r="C256" t="s" s="2">
@@ -30874,7 +30924,7 @@
       </c>
       <c r="D256" s="2"/>
       <c r="E256" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F256" t="s" s="2">
         <v>50</v>
@@ -30889,16 +30939,16 @@
         <v>43</v>
       </c>
       <c r="J256" t="s" s="2">
-        <v>70</v>
+        <v>213</v>
       </c>
       <c r="K256" t="s" s="2">
-        <v>732</v>
+        <v>724</v>
       </c>
       <c r="L256" t="s" s="2">
-        <v>733</v>
+        <v>725</v>
       </c>
       <c r="M256" t="s" s="2">
-        <v>734</v>
+        <v>726</v>
       </c>
       <c r="N256" s="2"/>
       <c r="O256" t="s" s="2">
@@ -30924,13 +30974,13 @@
         <v>43</v>
       </c>
       <c r="W256" t="s" s="2">
-        <v>105</v>
+        <v>43</v>
       </c>
       <c r="X256" t="s" s="2">
-        <v>735</v>
+        <v>43</v>
       </c>
       <c r="Y256" t="s" s="2">
-        <v>736</v>
+        <v>43</v>
       </c>
       <c r="Z256" t="s" s="2">
         <v>43</v>
@@ -30948,13 +30998,13 @@
         <v>43</v>
       </c>
       <c r="AE256" t="s" s="2">
-        <v>731</v>
+        <v>723</v>
       </c>
       <c r="AF256" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG256" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH256" t="s" s="2">
         <v>43</v>
@@ -30966,7 +31016,7 @@
         <v>43</v>
       </c>
       <c r="AK256" t="s" s="2">
-        <v>737</v>
+        <v>727</v>
       </c>
       <c r="AL256" t="s" s="2">
         <v>43</v>
@@ -30977,7 +31027,7 @@
     </row>
     <row r="257" hidden="true">
       <c r="A257" t="s" s="2">
-        <v>738</v>
+        <v>728</v>
       </c>
       <c r="B257" s="2"/>
       <c r="C257" t="s" s="2">
@@ -31000,17 +31050,15 @@
         <v>43</v>
       </c>
       <c r="J257" t="s" s="2">
-        <v>159</v>
+        <v>52</v>
       </c>
       <c r="K257" t="s" s="2">
-        <v>739</v>
+        <v>87</v>
       </c>
       <c r="L257" t="s" s="2">
-        <v>740</v>
-      </c>
-      <c r="M257" t="s" s="2">
-        <v>741</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="M257" s="2"/>
       <c r="N257" s="2"/>
       <c r="O257" t="s" s="2">
         <v>43</v>
@@ -31035,13 +31083,13 @@
         <v>43</v>
       </c>
       <c r="W257" t="s" s="2">
-        <v>294</v>
+        <v>43</v>
       </c>
       <c r="X257" t="s" s="2">
-        <v>742</v>
+        <v>43</v>
       </c>
       <c r="Y257" t="s" s="2">
-        <v>743</v>
+        <v>43</v>
       </c>
       <c r="Z257" t="s" s="2">
         <v>43</v>
@@ -31059,7 +31107,7 @@
         <v>43</v>
       </c>
       <c r="AE257" t="s" s="2">
-        <v>738</v>
+        <v>89</v>
       </c>
       <c r="AF257" t="s" s="2">
         <v>41</v>
@@ -31071,13 +31119,13 @@
         <v>43</v>
       </c>
       <c r="AI257" t="s" s="2">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="AJ257" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK257" t="s" s="2">
-        <v>43</v>
+        <v>90</v>
       </c>
       <c r="AL257" t="s" s="2">
         <v>43</v>
@@ -31088,18 +31136,18 @@
     </row>
     <row r="258" hidden="true">
       <c r="A258" t="s" s="2">
-        <v>744</v>
+        <v>729</v>
       </c>
       <c r="B258" s="2"/>
       <c r="C258" t="s" s="2">
-        <v>43</v>
+        <v>92</v>
       </c>
       <c r="D258" s="2"/>
       <c r="E258" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F258" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G258" t="s" s="2">
         <v>43</v>
@@ -31111,15 +31159,17 @@
         <v>43</v>
       </c>
       <c r="J258" t="s" s="2">
-        <v>188</v>
+        <v>93</v>
       </c>
       <c r="K258" t="s" s="2">
-        <v>745</v>
+        <v>94</v>
       </c>
       <c r="L258" t="s" s="2">
-        <v>746</v>
-      </c>
-      <c r="M258" s="2"/>
+        <v>95</v>
+      </c>
+      <c r="M258" t="s" s="2">
+        <v>96</v>
+      </c>
       <c r="N258" s="2"/>
       <c r="O258" t="s" s="2">
         <v>43</v>
@@ -31168,25 +31218,25 @@
         <v>43</v>
       </c>
       <c r="AE258" t="s" s="2">
-        <v>744</v>
+        <v>100</v>
       </c>
       <c r="AF258" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG258" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH258" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI258" t="s" s="2">
-        <v>62</v>
+        <v>101</v>
       </c>
       <c r="AJ258" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK258" t="s" s="2">
-        <v>453</v>
+        <v>90</v>
       </c>
       <c r="AL258" t="s" s="2">
         <v>43</v>
@@ -31197,39 +31247,43 @@
     </row>
     <row r="259" hidden="true">
       <c r="A259" t="s" s="2">
-        <v>747</v>
+        <v>730</v>
       </c>
       <c r="B259" s="2"/>
       <c r="C259" t="s" s="2">
-        <v>43</v>
+        <v>220</v>
       </c>
       <c r="D259" s="2"/>
       <c r="E259" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F259" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G259" t="s" s="2">
         <v>43</v>
       </c>
       <c r="H259" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="I259" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="J259" t="s" s="2">
-        <v>52</v>
+        <v>93</v>
       </c>
       <c r="K259" t="s" s="2">
-        <v>87</v>
+        <v>221</v>
       </c>
       <c r="L259" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="M259" s="2"/>
-      <c r="N259" s="2"/>
+        <v>222</v>
+      </c>
+      <c r="M259" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="N259" t="s" s="2">
+        <v>136</v>
+      </c>
       <c r="O259" t="s" s="2">
         <v>43</v>
       </c>
@@ -31277,25 +31331,25 @@
         <v>43</v>
       </c>
       <c r="AE259" t="s" s="2">
-        <v>89</v>
+        <v>223</v>
       </c>
       <c r="AF259" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG259" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH259" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI259" t="s" s="2">
-        <v>43</v>
+        <v>101</v>
       </c>
       <c r="AJ259" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK259" t="s" s="2">
-        <v>90</v>
+        <v>109</v>
       </c>
       <c r="AL259" t="s" s="2">
         <v>43</v>
@@ -31306,18 +31360,18 @@
     </row>
     <row r="260" hidden="true">
       <c r="A260" t="s" s="2">
-        <v>748</v>
+        <v>731</v>
       </c>
       <c r="B260" s="2"/>
       <c r="C260" t="s" s="2">
-        <v>92</v>
+        <v>43</v>
       </c>
       <c r="D260" s="2"/>
       <c r="E260" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F260" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G260" t="s" s="2">
         <v>43</v>
@@ -31329,17 +31383,15 @@
         <v>43</v>
       </c>
       <c r="J260" t="s" s="2">
-        <v>93</v>
+        <v>732</v>
       </c>
       <c r="K260" t="s" s="2">
-        <v>94</v>
+        <v>733</v>
       </c>
       <c r="L260" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="M260" t="s" s="2">
-        <v>96</v>
-      </c>
+        <v>734</v>
+      </c>
+      <c r="M260" s="2"/>
       <c r="N260" s="2"/>
       <c r="O260" t="s" s="2">
         <v>43</v>
@@ -31376,48 +31428,48 @@
         <v>43</v>
       </c>
       <c r="AA260" t="s" s="2">
-        <v>97</v>
+        <v>43</v>
       </c>
       <c r="AB260" t="s" s="2">
-        <v>98</v>
+        <v>43</v>
       </c>
       <c r="AC260" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AD260" t="s" s="2">
-        <v>99</v>
+        <v>43</v>
       </c>
       <c r="AE260" t="s" s="2">
-        <v>100</v>
+        <v>731</v>
       </c>
       <c r="AF260" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AG260" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH260" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI260" t="s" s="2">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="AJ260" t="s" s="2">
-        <v>43</v>
+        <v>735</v>
       </c>
       <c r="AK260" t="s" s="2">
-        <v>90</v>
+        <v>460</v>
       </c>
       <c r="AL260" t="s" s="2">
-        <v>43</v>
+        <v>736</v>
       </c>
       <c r="AM260" t="s" s="2">
-        <v>43</v>
+        <v>737</v>
       </c>
     </row>
     <row r="261" hidden="true">
       <c r="A261" t="s" s="2">
-        <v>749</v>
+        <v>738</v>
       </c>
       <c r="B261" s="2"/>
       <c r="C261" t="s" s="2">
@@ -31428,7 +31480,7 @@
         <v>41</v>
       </c>
       <c r="F261" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G261" t="s" s="2">
         <v>43</v>
@@ -31437,20 +31489,18 @@
         <v>43</v>
       </c>
       <c r="I261" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="J261" t="s" s="2">
-        <v>492</v>
+        <v>52</v>
       </c>
       <c r="K261" t="s" s="2">
-        <v>493</v>
+        <v>87</v>
       </c>
       <c r="L261" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="M261" t="s" s="2">
-        <v>495</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="M261" s="2"/>
       <c r="N261" s="2"/>
       <c r="O261" t="s" s="2">
         <v>43</v>
@@ -31499,7 +31549,7 @@
         <v>43</v>
       </c>
       <c r="AE261" t="s" s="2">
-        <v>496</v>
+        <v>89</v>
       </c>
       <c r="AF261" t="s" s="2">
         <v>41</v>
@@ -31508,38 +31558,38 @@
         <v>50</v>
       </c>
       <c r="AH261" t="s" s="2">
-        <v>497</v>
+        <v>43</v>
       </c>
       <c r="AI261" t="s" s="2">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="AJ261" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK261" t="s" s="2">
-        <v>498</v>
+        <v>90</v>
       </c>
       <c r="AL261" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AM261" t="s" s="2">
-        <v>499</v>
+        <v>43</v>
       </c>
     </row>
     <row r="262" hidden="true">
       <c r="A262" t="s" s="2">
-        <v>750</v>
+        <v>739</v>
       </c>
       <c r="B262" s="2"/>
       <c r="C262" t="s" s="2">
-        <v>43</v>
+        <v>92</v>
       </c>
       <c r="D262" s="2"/>
       <c r="E262" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F262" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G262" t="s" s="2">
         <v>43</v>
@@ -31548,27 +31598,25 @@
         <v>43</v>
       </c>
       <c r="I262" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="J262" t="s" s="2">
-        <v>492</v>
+        <v>93</v>
       </c>
       <c r="K262" t="s" s="2">
-        <v>501</v>
+        <v>94</v>
       </c>
       <c r="L262" t="s" s="2">
-        <v>502</v>
+        <v>95</v>
       </c>
       <c r="M262" t="s" s="2">
-        <v>503</v>
+        <v>96</v>
       </c>
       <c r="N262" s="2"/>
       <c r="O262" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="P262" t="s" s="2">
-        <v>504</v>
-      </c>
+      <c r="P262" s="2"/>
       <c r="Q262" t="s" s="2">
         <v>43</v>
       </c>
@@ -31600,48 +31648,48 @@
         <v>43</v>
       </c>
       <c r="AA262" t="s" s="2">
-        <v>43</v>
+        <v>97</v>
       </c>
       <c r="AB262" t="s" s="2">
-        <v>43</v>
+        <v>98</v>
       </c>
       <c r="AC262" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AD262" t="s" s="2">
-        <v>43</v>
+        <v>99</v>
       </c>
       <c r="AE262" t="s" s="2">
-        <v>505</v>
+        <v>100</v>
       </c>
       <c r="AF262" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG262" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH262" t="s" s="2">
-        <v>497</v>
+        <v>43</v>
       </c>
       <c r="AI262" t="s" s="2">
-        <v>62</v>
+        <v>101</v>
       </c>
       <c r="AJ262" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK262" t="s" s="2">
-        <v>506</v>
+        <v>90</v>
       </c>
       <c r="AL262" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AM262" t="s" s="2">
-        <v>507</v>
+        <v>43</v>
       </c>
     </row>
     <row r="263" hidden="true">
       <c r="A263" t="s" s="2">
-        <v>751</v>
+        <v>740</v>
       </c>
       <c r="B263" s="2"/>
       <c r="C263" t="s" s="2">
@@ -31649,7 +31697,7 @@
       </c>
       <c r="D263" s="2"/>
       <c r="E263" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F263" t="s" s="2">
         <v>50</v>
@@ -31661,18 +31709,20 @@
         <v>43</v>
       </c>
       <c r="I263" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="J263" t="s" s="2">
-        <v>195</v>
+        <v>52</v>
       </c>
       <c r="K263" t="s" s="2">
-        <v>752</v>
+        <v>373</v>
       </c>
       <c r="L263" t="s" s="2">
-        <v>753</v>
-      </c>
-      <c r="M263" s="2"/>
+        <v>374</v>
+      </c>
+      <c r="M263" t="s" s="2">
+        <v>375</v>
+      </c>
       <c r="N263" s="2"/>
       <c r="O263" t="s" s="2">
         <v>43</v>
@@ -31721,7 +31771,7 @@
         <v>43</v>
       </c>
       <c r="AE263" t="s" s="2">
-        <v>751</v>
+        <v>376</v>
       </c>
       <c r="AF263" t="s" s="2">
         <v>41</v>
@@ -31730,27 +31780,27 @@
         <v>50</v>
       </c>
       <c r="AH263" t="s" s="2">
-        <v>43</v>
+        <v>377</v>
       </c>
       <c r="AI263" t="s" s="2">
         <v>62</v>
       </c>
       <c r="AJ263" t="s" s="2">
-        <v>459</v>
+        <v>43</v>
       </c>
       <c r="AK263" t="s" s="2">
-        <v>754</v>
+        <v>109</v>
       </c>
       <c r="AL263" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AM263" t="s" s="2">
-        <v>755</v>
+        <v>43</v>
       </c>
     </row>
     <row r="264" hidden="true">
       <c r="A264" t="s" s="2">
-        <v>756</v>
+        <v>741</v>
       </c>
       <c r="B264" s="2"/>
       <c r="C264" t="s" s="2">
@@ -31770,18 +31820,20 @@
         <v>43</v>
       </c>
       <c r="I264" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="J264" t="s" s="2">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="K264" t="s" s="2">
-        <v>87</v>
+        <v>379</v>
       </c>
       <c r="L264" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="M264" s="2"/>
+        <v>380</v>
+      </c>
+      <c r="M264" t="s" s="2">
+        <v>381</v>
+      </c>
       <c r="N264" s="2"/>
       <c r="O264" t="s" s="2">
         <v>43</v>
@@ -31806,13 +31858,13 @@
         <v>43</v>
       </c>
       <c r="W264" t="s" s="2">
-        <v>43</v>
+        <v>164</v>
       </c>
       <c r="X264" t="s" s="2">
-        <v>43</v>
+        <v>382</v>
       </c>
       <c r="Y264" t="s" s="2">
-        <v>43</v>
+        <v>383</v>
       </c>
       <c r="Z264" t="s" s="2">
         <v>43</v>
@@ -31830,7 +31882,7 @@
         <v>43</v>
       </c>
       <c r="AE264" t="s" s="2">
-        <v>89</v>
+        <v>384</v>
       </c>
       <c r="AF264" t="s" s="2">
         <v>41</v>
@@ -31842,13 +31894,13 @@
         <v>43</v>
       </c>
       <c r="AI264" t="s" s="2">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="AJ264" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK264" t="s" s="2">
-        <v>90</v>
+        <v>109</v>
       </c>
       <c r="AL264" t="s" s="2">
         <v>43</v>
@@ -31859,18 +31911,18 @@
     </row>
     <row r="265" hidden="true">
       <c r="A265" t="s" s="2">
-        <v>757</v>
+        <v>742</v>
       </c>
       <c r="B265" s="2"/>
       <c r="C265" t="s" s="2">
-        <v>92</v>
+        <v>43</v>
       </c>
       <c r="D265" s="2"/>
       <c r="E265" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F265" t="s" s="2">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G265" t="s" s="2">
         <v>43</v>
@@ -31879,19 +31931,19 @@
         <v>43</v>
       </c>
       <c r="I265" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="J265" t="s" s="2">
-        <v>93</v>
+        <v>139</v>
       </c>
       <c r="K265" t="s" s="2">
-        <v>94</v>
+        <v>386</v>
       </c>
       <c r="L265" t="s" s="2">
-        <v>95</v>
+        <v>387</v>
       </c>
       <c r="M265" t="s" s="2">
-        <v>96</v>
+        <v>388</v>
       </c>
       <c r="N265" s="2"/>
       <c r="O265" t="s" s="2">
@@ -31929,37 +31981,37 @@
         <v>43</v>
       </c>
       <c r="AA265" t="s" s="2">
-        <v>97</v>
+        <v>43</v>
       </c>
       <c r="AB265" t="s" s="2">
-        <v>98</v>
+        <v>43</v>
       </c>
       <c r="AC265" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AD265" t="s" s="2">
-        <v>99</v>
+        <v>43</v>
       </c>
       <c r="AE265" t="s" s="2">
-        <v>100</v>
+        <v>389</v>
       </c>
       <c r="AF265" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG265" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH265" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI265" t="s" s="2">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="AJ265" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK265" t="s" s="2">
-        <v>90</v>
+        <v>390</v>
       </c>
       <c r="AL265" t="s" s="2">
         <v>43</v>
@@ -31970,7 +32022,7 @@
     </row>
     <row r="266" hidden="true">
       <c r="A266" t="s" s="2">
-        <v>758</v>
+        <v>743</v>
       </c>
       <c r="B266" s="2"/>
       <c r="C266" t="s" s="2">
@@ -31978,10 +32030,10 @@
       </c>
       <c r="D266" s="2"/>
       <c r="E266" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F266" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G266" t="s" s="2">
         <v>43</v>
@@ -31996,13 +32048,13 @@
         <v>52</v>
       </c>
       <c r="K266" t="s" s="2">
-        <v>373</v>
+        <v>392</v>
       </c>
       <c r="L266" t="s" s="2">
-        <v>374</v>
+        <v>393</v>
       </c>
       <c r="M266" t="s" s="2">
-        <v>375</v>
+        <v>394</v>
       </c>
       <c r="N266" s="2"/>
       <c r="O266" t="s" s="2">
@@ -32052,7 +32104,7 @@
         <v>43</v>
       </c>
       <c r="AE266" t="s" s="2">
-        <v>376</v>
+        <v>395</v>
       </c>
       <c r="AF266" t="s" s="2">
         <v>41</v>
@@ -32061,7 +32113,7 @@
         <v>50</v>
       </c>
       <c r="AH266" t="s" s="2">
-        <v>377</v>
+        <v>43</v>
       </c>
       <c r="AI266" t="s" s="2">
         <v>62</v>
@@ -32081,7 +32133,7 @@
     </row>
     <row r="267" hidden="true">
       <c r="A267" t="s" s="2">
-        <v>759</v>
+        <v>744</v>
       </c>
       <c r="B267" s="2"/>
       <c r="C267" t="s" s="2">
@@ -32092,7 +32144,7 @@
         <v>41</v>
       </c>
       <c r="F267" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G267" t="s" s="2">
         <v>43</v>
@@ -32101,19 +32153,19 @@
         <v>43</v>
       </c>
       <c r="I267" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="J267" t="s" s="2">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="K267" t="s" s="2">
-        <v>379</v>
+        <v>745</v>
       </c>
       <c r="L267" t="s" s="2">
-        <v>380</v>
+        <v>746</v>
       </c>
       <c r="M267" t="s" s="2">
-        <v>381</v>
+        <v>747</v>
       </c>
       <c r="N267" s="2"/>
       <c r="O267" t="s" s="2">
@@ -32139,13 +32191,13 @@
         <v>43</v>
       </c>
       <c r="W267" t="s" s="2">
-        <v>164</v>
+        <v>105</v>
       </c>
       <c r="X267" t="s" s="2">
-        <v>382</v>
+        <v>748</v>
       </c>
       <c r="Y267" t="s" s="2">
-        <v>383</v>
+        <v>749</v>
       </c>
       <c r="Z267" t="s" s="2">
         <v>43</v>
@@ -32163,7 +32215,7 @@
         <v>43</v>
       </c>
       <c r="AE267" t="s" s="2">
-        <v>384</v>
+        <v>744</v>
       </c>
       <c r="AF267" t="s" s="2">
         <v>41</v>
@@ -32181,7 +32233,7 @@
         <v>43</v>
       </c>
       <c r="AK267" t="s" s="2">
-        <v>109</v>
+        <v>750</v>
       </c>
       <c r="AL267" t="s" s="2">
         <v>43</v>
@@ -32192,7 +32244,7 @@
     </row>
     <row r="268" hidden="true">
       <c r="A268" t="s" s="2">
-        <v>760</v>
+        <v>751</v>
       </c>
       <c r="B268" s="2"/>
       <c r="C268" t="s" s="2">
@@ -32212,19 +32264,19 @@
         <v>43</v>
       </c>
       <c r="I268" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="J268" t="s" s="2">
-        <v>139</v>
+        <v>159</v>
       </c>
       <c r="K268" t="s" s="2">
-        <v>386</v>
+        <v>752</v>
       </c>
       <c r="L268" t="s" s="2">
-        <v>387</v>
+        <v>753</v>
       </c>
       <c r="M268" t="s" s="2">
-        <v>388</v>
+        <v>754</v>
       </c>
       <c r="N268" s="2"/>
       <c r="O268" t="s" s="2">
@@ -32250,13 +32302,13 @@
         <v>43</v>
       </c>
       <c r="W268" t="s" s="2">
-        <v>43</v>
+        <v>294</v>
       </c>
       <c r="X268" t="s" s="2">
-        <v>43</v>
+        <v>755</v>
       </c>
       <c r="Y268" t="s" s="2">
-        <v>43</v>
+        <v>756</v>
       </c>
       <c r="Z268" t="s" s="2">
         <v>43</v>
@@ -32274,7 +32326,7 @@
         <v>43</v>
       </c>
       <c r="AE268" t="s" s="2">
-        <v>389</v>
+        <v>751</v>
       </c>
       <c r="AF268" t="s" s="2">
         <v>41</v>
@@ -32292,7 +32344,7 @@
         <v>43</v>
       </c>
       <c r="AK268" t="s" s="2">
-        <v>390</v>
+        <v>43</v>
       </c>
       <c r="AL268" t="s" s="2">
         <v>43</v>
@@ -32303,7 +32355,7 @@
     </row>
     <row r="269" hidden="true">
       <c r="A269" t="s" s="2">
-        <v>761</v>
+        <v>757</v>
       </c>
       <c r="B269" s="2"/>
       <c r="C269" t="s" s="2">
@@ -32314,7 +32366,7 @@
         <v>41</v>
       </c>
       <c r="F269" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G269" t="s" s="2">
         <v>43</v>
@@ -32323,20 +32375,18 @@
         <v>43</v>
       </c>
       <c r="I269" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="J269" t="s" s="2">
-        <v>52</v>
+        <v>188</v>
       </c>
       <c r="K269" t="s" s="2">
-        <v>392</v>
+        <v>758</v>
       </c>
       <c r="L269" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="M269" t="s" s="2">
-        <v>394</v>
-      </c>
+        <v>759</v>
+      </c>
+      <c r="M269" s="2"/>
       <c r="N269" s="2"/>
       <c r="O269" t="s" s="2">
         <v>43</v>
@@ -32385,7 +32435,7 @@
         <v>43</v>
       </c>
       <c r="AE269" t="s" s="2">
-        <v>395</v>
+        <v>757</v>
       </c>
       <c r="AF269" t="s" s="2">
         <v>41</v>
@@ -32403,7 +32453,7 @@
         <v>43</v>
       </c>
       <c r="AK269" t="s" s="2">
-        <v>109</v>
+        <v>453</v>
       </c>
       <c r="AL269" t="s" s="2">
         <v>43</v>
@@ -32414,7 +32464,7 @@
     </row>
     <row r="270" hidden="true">
       <c r="A270" t="s" s="2">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="B270" s="2"/>
       <c r="C270" t="s" s="2">
@@ -32425,7 +32475,7 @@
         <v>41</v>
       </c>
       <c r="F270" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G270" t="s" s="2">
         <v>43</v>
@@ -32437,17 +32487,15 @@
         <v>43</v>
       </c>
       <c r="J270" t="s" s="2">
-        <v>763</v>
+        <v>52</v>
       </c>
       <c r="K270" t="s" s="2">
-        <v>764</v>
+        <v>87</v>
       </c>
       <c r="L270" t="s" s="2">
-        <v>765</v>
-      </c>
-      <c r="M270" t="s" s="2">
-        <v>766</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="M270" s="2"/>
       <c r="N270" s="2"/>
       <c r="O270" t="s" s="2">
         <v>43</v>
@@ -32496,7 +32544,7 @@
         <v>43</v>
       </c>
       <c r="AE270" t="s" s="2">
-        <v>762</v>
+        <v>89</v>
       </c>
       <c r="AF270" t="s" s="2">
         <v>41</v>
@@ -32508,13 +32556,13 @@
         <v>43</v>
       </c>
       <c r="AI270" t="s" s="2">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="AJ270" t="s" s="2">
-        <v>767</v>
+        <v>43</v>
       </c>
       <c r="AK270" t="s" s="2">
-        <v>768</v>
+        <v>90</v>
       </c>
       <c r="AL270" t="s" s="2">
         <v>43</v>
@@ -32525,18 +32573,18 @@
     </row>
     <row r="271" hidden="true">
       <c r="A271" t="s" s="2">
-        <v>769</v>
+        <v>761</v>
       </c>
       <c r="B271" s="2"/>
       <c r="C271" t="s" s="2">
-        <v>43</v>
+        <v>92</v>
       </c>
       <c r="D271" s="2"/>
       <c r="E271" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F271" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G271" t="s" s="2">
         <v>43</v>
@@ -32548,15 +32596,17 @@
         <v>43</v>
       </c>
       <c r="J271" t="s" s="2">
-        <v>52</v>
+        <v>93</v>
       </c>
       <c r="K271" t="s" s="2">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="L271" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="M271" s="2"/>
+        <v>95</v>
+      </c>
+      <c r="M271" t="s" s="2">
+        <v>96</v>
+      </c>
       <c r="N271" s="2"/>
       <c r="O271" t="s" s="2">
         <v>43</v>
@@ -32593,31 +32643,31 @@
         <v>43</v>
       </c>
       <c r="AA271" t="s" s="2">
-        <v>43</v>
+        <v>97</v>
       </c>
       <c r="AB271" t="s" s="2">
-        <v>43</v>
+        <v>98</v>
       </c>
       <c r="AC271" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AD271" t="s" s="2">
-        <v>43</v>
+        <v>99</v>
       </c>
       <c r="AE271" t="s" s="2">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="AF271" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG271" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH271" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI271" t="s" s="2">
-        <v>43</v>
+        <v>101</v>
       </c>
       <c r="AJ271" t="s" s="2">
         <v>43</v>
@@ -32634,18 +32684,18 @@
     </row>
     <row r="272" hidden="true">
       <c r="A272" t="s" s="2">
-        <v>770</v>
+        <v>762</v>
       </c>
       <c r="B272" s="2"/>
       <c r="C272" t="s" s="2">
-        <v>92</v>
+        <v>43</v>
       </c>
       <c r="D272" s="2"/>
       <c r="E272" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F272" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G272" t="s" s="2">
         <v>43</v>
@@ -32654,19 +32704,19 @@
         <v>43</v>
       </c>
       <c r="I272" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="J272" t="s" s="2">
-        <v>93</v>
+        <v>492</v>
       </c>
       <c r="K272" t="s" s="2">
-        <v>94</v>
+        <v>493</v>
       </c>
       <c r="L272" t="s" s="2">
-        <v>95</v>
+        <v>494</v>
       </c>
       <c r="M272" t="s" s="2">
-        <v>96</v>
+        <v>495</v>
       </c>
       <c r="N272" s="2"/>
       <c r="O272" t="s" s="2">
@@ -32704,48 +32754,48 @@
         <v>43</v>
       </c>
       <c r="AA272" t="s" s="2">
-        <v>97</v>
+        <v>43</v>
       </c>
       <c r="AB272" t="s" s="2">
-        <v>98</v>
+        <v>43</v>
       </c>
       <c r="AC272" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AD272" t="s" s="2">
-        <v>99</v>
+        <v>43</v>
       </c>
       <c r="AE272" t="s" s="2">
-        <v>100</v>
+        <v>496</v>
       </c>
       <c r="AF272" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG272" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH272" t="s" s="2">
-        <v>43</v>
+        <v>497</v>
       </c>
       <c r="AI272" t="s" s="2">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="AJ272" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK272" t="s" s="2">
-        <v>90</v>
+        <v>498</v>
       </c>
       <c r="AL272" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AM272" t="s" s="2">
-        <v>43</v>
+        <v>499</v>
       </c>
     </row>
     <row r="273" hidden="true">
       <c r="A273" t="s" s="2">
-        <v>771</v>
+        <v>763</v>
       </c>
       <c r="B273" s="2"/>
       <c r="C273" t="s" s="2">
@@ -32753,7 +32803,7 @@
       </c>
       <c r="D273" s="2"/>
       <c r="E273" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F273" t="s" s="2">
         <v>50</v>
@@ -32768,22 +32818,24 @@
         <v>51</v>
       </c>
       <c r="J273" t="s" s="2">
-        <v>52</v>
+        <v>492</v>
       </c>
       <c r="K273" t="s" s="2">
-        <v>373</v>
+        <v>501</v>
       </c>
       <c r="L273" t="s" s="2">
-        <v>374</v>
+        <v>502</v>
       </c>
       <c r="M273" t="s" s="2">
-        <v>375</v>
+        <v>503</v>
       </c>
       <c r="N273" s="2"/>
       <c r="O273" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="P273" s="2"/>
+      <c r="P273" t="s" s="2">
+        <v>504</v>
+      </c>
       <c r="Q273" t="s" s="2">
         <v>43</v>
       </c>
@@ -32827,7 +32879,7 @@
         <v>43</v>
       </c>
       <c r="AE273" t="s" s="2">
-        <v>376</v>
+        <v>505</v>
       </c>
       <c r="AF273" t="s" s="2">
         <v>41</v>
@@ -32836,7 +32888,7 @@
         <v>50</v>
       </c>
       <c r="AH273" t="s" s="2">
-        <v>377</v>
+        <v>497</v>
       </c>
       <c r="AI273" t="s" s="2">
         <v>62</v>
@@ -32845,18 +32897,18 @@
         <v>43</v>
       </c>
       <c r="AK273" t="s" s="2">
-        <v>109</v>
+        <v>506</v>
       </c>
       <c r="AL273" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AM273" t="s" s="2">
-        <v>43</v>
+        <v>507</v>
       </c>
     </row>
     <row r="274" hidden="true">
       <c r="A274" t="s" s="2">
-        <v>772</v>
+        <v>764</v>
       </c>
       <c r="B274" s="2"/>
       <c r="C274" t="s" s="2">
@@ -32867,7 +32919,7 @@
         <v>41</v>
       </c>
       <c r="F274" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G274" t="s" s="2">
         <v>43</v>
@@ -32876,20 +32928,18 @@
         <v>43</v>
       </c>
       <c r="I274" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="J274" t="s" s="2">
-        <v>64</v>
+        <v>195</v>
       </c>
       <c r="K274" t="s" s="2">
-        <v>379</v>
+        <v>765</v>
       </c>
       <c r="L274" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="M274" t="s" s="2">
-        <v>381</v>
-      </c>
+        <v>766</v>
+      </c>
+      <c r="M274" s="2"/>
       <c r="N274" s="2"/>
       <c r="O274" t="s" s="2">
         <v>43</v>
@@ -32914,13 +32964,13 @@
         <v>43</v>
       </c>
       <c r="W274" t="s" s="2">
-        <v>164</v>
+        <v>43</v>
       </c>
       <c r="X274" t="s" s="2">
-        <v>382</v>
+        <v>43</v>
       </c>
       <c r="Y274" t="s" s="2">
-        <v>383</v>
+        <v>43</v>
       </c>
       <c r="Z274" t="s" s="2">
         <v>43</v>
@@ -32938,7 +32988,7 @@
         <v>43</v>
       </c>
       <c r="AE274" t="s" s="2">
-        <v>384</v>
+        <v>764</v>
       </c>
       <c r="AF274" t="s" s="2">
         <v>41</v>
@@ -32953,21 +33003,21 @@
         <v>62</v>
       </c>
       <c r="AJ274" t="s" s="2">
-        <v>43</v>
+        <v>459</v>
       </c>
       <c r="AK274" t="s" s="2">
-        <v>109</v>
+        <v>767</v>
       </c>
       <c r="AL274" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AM274" t="s" s="2">
-        <v>43</v>
+        <v>768</v>
       </c>
     </row>
     <row r="275" hidden="true">
       <c r="A275" t="s" s="2">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="B275" s="2"/>
       <c r="C275" t="s" s="2">
@@ -32987,20 +33037,18 @@
         <v>43</v>
       </c>
       <c r="I275" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="J275" t="s" s="2">
-        <v>139</v>
+        <v>52</v>
       </c>
       <c r="K275" t="s" s="2">
-        <v>386</v>
+        <v>87</v>
       </c>
       <c r="L275" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="M275" t="s" s="2">
-        <v>388</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="M275" s="2"/>
       <c r="N275" s="2"/>
       <c r="O275" t="s" s="2">
         <v>43</v>
@@ -33049,7 +33097,7 @@
         <v>43</v>
       </c>
       <c r="AE275" t="s" s="2">
-        <v>389</v>
+        <v>89</v>
       </c>
       <c r="AF275" t="s" s="2">
         <v>41</v>
@@ -33061,13 +33109,13 @@
         <v>43</v>
       </c>
       <c r="AI275" t="s" s="2">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="AJ275" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK275" t="s" s="2">
-        <v>390</v>
+        <v>90</v>
       </c>
       <c r="AL275" t="s" s="2">
         <v>43</v>
@@ -33078,18 +33126,18 @@
     </row>
     <row r="276" hidden="true">
       <c r="A276" t="s" s="2">
-        <v>774</v>
+        <v>770</v>
       </c>
       <c r="B276" s="2"/>
       <c r="C276" t="s" s="2">
-        <v>43</v>
+        <v>92</v>
       </c>
       <c r="D276" s="2"/>
       <c r="E276" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F276" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G276" t="s" s="2">
         <v>43</v>
@@ -33098,19 +33146,19 @@
         <v>43</v>
       </c>
       <c r="I276" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="J276" t="s" s="2">
-        <v>52</v>
+        <v>93</v>
       </c>
       <c r="K276" t="s" s="2">
-        <v>392</v>
+        <v>94</v>
       </c>
       <c r="L276" t="s" s="2">
-        <v>393</v>
+        <v>95</v>
       </c>
       <c r="M276" t="s" s="2">
-        <v>394</v>
+        <v>96</v>
       </c>
       <c r="N276" s="2"/>
       <c r="O276" t="s" s="2">
@@ -33148,47 +33196,1266 @@
         <v>43</v>
       </c>
       <c r="AA276" t="s" s="2">
-        <v>43</v>
+        <v>97</v>
       </c>
       <c r="AB276" t="s" s="2">
-        <v>43</v>
+        <v>98</v>
       </c>
       <c r="AC276" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AD276" t="s" s="2">
-        <v>43</v>
+        <v>99</v>
       </c>
       <c r="AE276" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AF276" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG276" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH276" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI276" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AJ276" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK276" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AL276" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM276" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="277" hidden="true">
+      <c r="A277" t="s" s="2">
+        <v>771</v>
+      </c>
+      <c r="B277" s="2"/>
+      <c r="C277" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="D277" s="2"/>
+      <c r="E277" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="F277" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G277" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H277" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I277" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="J277" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="K277" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="L277" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="M277" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="N277" s="2"/>
+      <c r="O277" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="P277" s="2"/>
+      <c r="Q277" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R277" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S277" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T277" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U277" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V277" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W277" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="X277" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Y277" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Z277" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA277" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB277" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC277" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD277" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE277" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="AF277" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG277" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH277" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="AI277" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ277" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK277" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="AL277" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM277" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="278" hidden="true">
+      <c r="A278" t="s" s="2">
+        <v>772</v>
+      </c>
+      <c r="B278" s="2"/>
+      <c r="C278" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="D278" s="2"/>
+      <c r="E278" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F278" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G278" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H278" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I278" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="J278" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="K278" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="L278" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="M278" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="N278" s="2"/>
+      <c r="O278" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="P278" s="2"/>
+      <c r="Q278" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R278" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S278" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T278" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U278" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V278" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W278" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="X278" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="Y278" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="Z278" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA278" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB278" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC278" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD278" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE278" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="AF278" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG278" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH278" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI278" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ278" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK278" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="AL278" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM278" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="279" hidden="true">
+      <c r="A279" t="s" s="2">
+        <v>773</v>
+      </c>
+      <c r="B279" s="2"/>
+      <c r="C279" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="D279" s="2"/>
+      <c r="E279" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F279" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G279" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H279" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I279" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="J279" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="K279" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="L279" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="M279" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="N279" s="2"/>
+      <c r="O279" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="P279" s="2"/>
+      <c r="Q279" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R279" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S279" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T279" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U279" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V279" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W279" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="X279" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Y279" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Z279" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA279" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB279" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC279" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD279" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE279" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="AF279" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG279" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH279" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI279" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ279" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK279" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="AL279" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM279" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="280" hidden="true">
+      <c r="A280" t="s" s="2">
+        <v>774</v>
+      </c>
+      <c r="B280" s="2"/>
+      <c r="C280" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="D280" s="2"/>
+      <c r="E280" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F280" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G280" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H280" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I280" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="J280" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="K280" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="L280" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="M280" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="N280" s="2"/>
+      <c r="O280" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="P280" s="2"/>
+      <c r="Q280" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R280" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S280" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T280" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U280" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V280" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W280" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="X280" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Y280" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Z280" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA280" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB280" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC280" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD280" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE280" t="s" s="2">
         <v>395</v>
       </c>
-      <c r="AF276" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG276" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH276" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI276" t="s" s="2">
+      <c r="AF280" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG280" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH280" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI280" t="s" s="2">
         <v>62</v>
       </c>
-      <c r="AJ276" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK276" t="s" s="2">
+      <c r="AJ280" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK280" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="AL276" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AM276" t="s" s="2">
+      <c r="AL280" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM280" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="281" hidden="true">
+      <c r="A281" t="s" s="2">
+        <v>775</v>
+      </c>
+      <c r="B281" s="2"/>
+      <c r="C281" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="D281" s="2"/>
+      <c r="E281" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F281" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G281" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H281" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I281" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="J281" t="s" s="2">
+        <v>776</v>
+      </c>
+      <c r="K281" t="s" s="2">
+        <v>777</v>
+      </c>
+      <c r="L281" t="s" s="2">
+        <v>778</v>
+      </c>
+      <c r="M281" t="s" s="2">
+        <v>779</v>
+      </c>
+      <c r="N281" s="2"/>
+      <c r="O281" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="P281" s="2"/>
+      <c r="Q281" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R281" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S281" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T281" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U281" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V281" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W281" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="X281" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Y281" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Z281" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA281" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB281" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC281" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD281" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE281" t="s" s="2">
+        <v>775</v>
+      </c>
+      <c r="AF281" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG281" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH281" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI281" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ281" t="s" s="2">
+        <v>780</v>
+      </c>
+      <c r="AK281" t="s" s="2">
+        <v>781</v>
+      </c>
+      <c r="AL281" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM281" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="282" hidden="true">
+      <c r="A282" t="s" s="2">
+        <v>782</v>
+      </c>
+      <c r="B282" s="2"/>
+      <c r="C282" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="D282" s="2"/>
+      <c r="E282" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F282" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G282" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H282" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I282" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="J282" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="K282" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="L282" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="M282" s="2"/>
+      <c r="N282" s="2"/>
+      <c r="O282" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="P282" s="2"/>
+      <c r="Q282" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R282" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S282" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T282" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U282" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V282" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W282" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="X282" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Y282" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Z282" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA282" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB282" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC282" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD282" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE282" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AF282" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG282" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH282" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI282" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AJ282" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK282" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AL282" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM282" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="283" hidden="true">
+      <c r="A283" t="s" s="2">
+        <v>783</v>
+      </c>
+      <c r="B283" s="2"/>
+      <c r="C283" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="D283" s="2"/>
+      <c r="E283" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F283" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G283" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H283" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I283" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="J283" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="K283" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="L283" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="M283" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="N283" s="2"/>
+      <c r="O283" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="P283" s="2"/>
+      <c r="Q283" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R283" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S283" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T283" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U283" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V283" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W283" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="X283" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Y283" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Z283" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA283" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AB283" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AC283" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD283" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AE283" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AF283" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG283" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH283" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI283" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AJ283" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK283" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AL283" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM283" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="284" hidden="true">
+      <c r="A284" t="s" s="2">
+        <v>784</v>
+      </c>
+      <c r="B284" s="2"/>
+      <c r="C284" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="D284" s="2"/>
+      <c r="E284" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="F284" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G284" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H284" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I284" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="J284" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="K284" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="L284" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="M284" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="N284" s="2"/>
+      <c r="O284" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="P284" s="2"/>
+      <c r="Q284" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R284" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S284" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T284" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U284" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V284" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W284" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="X284" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Y284" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Z284" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA284" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB284" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC284" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD284" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE284" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="AF284" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG284" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH284" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="AI284" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ284" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK284" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="AL284" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM284" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="285" hidden="true">
+      <c r="A285" t="s" s="2">
+        <v>785</v>
+      </c>
+      <c r="B285" s="2"/>
+      <c r="C285" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="D285" s="2"/>
+      <c r="E285" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F285" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G285" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H285" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I285" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="J285" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="K285" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="L285" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="M285" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="N285" s="2"/>
+      <c r="O285" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="P285" s="2"/>
+      <c r="Q285" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R285" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S285" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T285" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U285" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V285" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W285" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="X285" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="Y285" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="Z285" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA285" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB285" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC285" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD285" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE285" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="AF285" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG285" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH285" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI285" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ285" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK285" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="AL285" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM285" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="286" hidden="true">
+      <c r="A286" t="s" s="2">
+        <v>786</v>
+      </c>
+      <c r="B286" s="2"/>
+      <c r="C286" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="D286" s="2"/>
+      <c r="E286" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F286" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G286" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H286" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I286" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="J286" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="K286" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="L286" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="M286" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="N286" s="2"/>
+      <c r="O286" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="P286" s="2"/>
+      <c r="Q286" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R286" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S286" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T286" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U286" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V286" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W286" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="X286" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Y286" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Z286" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA286" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB286" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC286" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD286" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE286" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="AF286" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG286" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH286" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI286" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ286" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK286" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="AL286" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM286" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="287" hidden="true">
+      <c r="A287" t="s" s="2">
+        <v>787</v>
+      </c>
+      <c r="B287" s="2"/>
+      <c r="C287" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="D287" s="2"/>
+      <c r="E287" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F287" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G287" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H287" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I287" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="J287" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="K287" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="L287" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="M287" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="N287" s="2"/>
+      <c r="O287" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="P287" s="2"/>
+      <c r="Q287" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R287" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S287" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T287" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U287" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V287" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W287" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="X287" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Y287" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Z287" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA287" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB287" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC287" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD287" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE287" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="AF287" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG287" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH287" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI287" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ287" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK287" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="AL287" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM287" t="s" s="2">
         <v>43</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM276">
+  <autoFilter ref="A1:AM287">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -33198,7 +34465,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI275">
+  <conditionalFormatting sqref="A2:AI286">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/fhir/indisa/StructureDefinition-ProfileEncounterKlinic.xlsx
+++ b/fhir/indisa/StructureDefinition-ProfileEncounterKlinic.xlsx
@@ -2590,45 +2590,45 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="61.39453125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="12.0859375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="12.07421875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="63.296875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="12.65625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="112.85546875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="116.3203125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="95.328125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="56.75" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="40.0859375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="44.57421875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="98.375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="56.25" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="45.671875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="26.57421875" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="99.8515625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="33.046875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="187.4921875" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="29.69921875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="102.6171875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="191.12890625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
